--- a/database/coordenadas_salvas.xlsx
+++ b/database/coordenadas_salvas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,6 +697,8075 @@
         <v>-46.8040452</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Rua  RODOLFO ZOLLI, 242, Presidente Altino, Osasco</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-23.5325</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-46.79167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rua VALDIR SOARES LOPES, 37, SAO PEDRO, Osasco</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-23.5435255</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-46.8146513</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rua Paulo Soares, 509, Jardim Santo Antonio, Osasco</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-23.5583958</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-46.79401</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Rua GASPARINO LUNARDI, 331, Jardim das Flores, Osasco</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-23.5293352</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-46.7930619</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Avenida JOSE BARBOSA DE SIQUEIRA, 1026, JARDIM PADROEIRA I, Osasco</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-23.5325</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-46.79167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Avenida JOSE BARBOSA DE SIQUEIRA, 974, JARDIM PADROEIRA I, Osasco</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-23.5325</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-46.79167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Rua GENERAL NEWTON ESTILAC LEAL, 1361, Pestana, Osasco</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-23.5325</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-46.79167</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Rua COELHO NETO, 126, Jardim Platina, Osasco</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-23.5325</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-46.79167</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Avenida AUTONOMISTAS, DOS, 1400, Vila Yara, Osasco</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-23.5389781</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-46.7653358</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Rua JUAN VICENTE, 482, Bandeiras, Osasco</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-23.559865</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-46.8166755</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Rua MANAUS, 01, Cohab, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-23.5340636</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-46.8254445</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Rua RUA CAMBIRA, 20, Vila Maria Helena, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Avenida Plutão, 583, Jd.Novo Horizonte, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Rua SAO LUCAS EVANGELISTA, 236, JARDIM CIBELE, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Avenida NOSSA SENHORA APARECIDA, 22, Vila Silviania, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-23.5270869</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-46.8456247</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rua ITAJUBA, 192, Parque Santa Teresa, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rua ITAJUBA, 363, Parque Santa Teresa, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estrada Ondas Verde, 1089, Parque Santa Tereza, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estrada FAZENDINHA, 281, POUSADA DOS BANDEIRANTES, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Avenida MARGINAL CSU CENTRO S URBANO, 17, Cidade Ariston, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Avenida COMENDADOR DANTE CARRARO, 576, Cidade Ariston Estela Azevedo, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-23.5340401</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-46.8534601</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rua OFELIA ALVES FERREIRA, 60, JARDIM YAYA, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Avenida INOCENCIO SERAFICO, 2120, VILA FREIDA, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-23.52272</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-46.835</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rua LENITA, 542, Parque dos Camargos, Barueri</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-23.5349426</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-46.8876186</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Avenida CACHOEIRA, 125, Vl. Pindorama, Barueri</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-23.4928532</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-46.880312</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rua PRESIDENTE CASTELO BRANCO, 174, Jardim Sorocabano, Jandira</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-23.5359134</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-46.9038554</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rua DA PRATA, 349, Jardim dos Camargos, Barueri</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>-23.5025874</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-46.8674979</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rua PADRE CICERO ROMAO BATISTA, 234, Parque Imperial, Barueri</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>-23.4886307</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-46.8133445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rua Minas Gerais, 300, Vila Boa Vista, Barueri</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>-23.5011283</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-46.8754334</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Avenida ZELIA, 1200, Parque dos Camargos, Barueri</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>-23.537259</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-46.887885</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Alameda COLIBRI, 64, MORADA DOS PASSAROS, Barueri</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-23.4953736</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-46.9513761</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rua ADRIANO AUGUSTO, 275, JARDIM TIMBAUHY / ALDEIA, Barueri</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-23.51139</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-46.85306</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Avenida DOS SUL AMERICANOS, 57, Parque Suburbano, Itapevi</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-23.54889</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-46.93417</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rua HELOIZA HIDEKO KOBA, 628, Jardim Nova Itapevi, Itapevi</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-23.54889</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-46.93417</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rua Pedro Paulino, 28, Jardim Paulista, Itapevi</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>-23.54889</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-46.93417</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Avenida RUBENS CARAMEZ, 400, VILA AURORA, Itapevi</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-23.5490681</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-46.9371725</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estrada TENENTE MARQUES, 6690, CHACARA DO SOLAR I (FAZENDINHA, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-23.4117208</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-46.8919652</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Avenida MOACIR DA SILVEIRA, 1035, Jardim Isaura, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-23.4798612</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-46.8921049</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Rua CAPRICORNIO, 667, Parque Santana, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-23.4766029</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-46.8917493</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Avenida MARTE, 466, Alphaville, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>-23.4621196</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-46.8729998</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Avenida BRASIL, 276, JARDIM SAO LUIS, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-23.4434656</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-46.9262991</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Avenida MOACIR DA SILVEIRA, 942, Jardim Isaura, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>-23.4798612</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-46.8921049</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Avenida YOJIRO TAKAOKA, 4350, Alphaville, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>-23.4630695</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-46.8748983</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Avenida YOJIRO TAKAOKA, 4630, ALPHAVILLE - CENTRO DE APOIO I, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>-0.05833</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-51.18167</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Avenida MARCOS PENTEADO DE ULHOA RODRIGUES, 3900, TAMBORE, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>-23.464472</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-46.8640554</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Avenida Yojiro Takaoka, 4492, Alphaville, Santana de Parnaíba</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>-23.4630695</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-46.8748983</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Avenida CARLOS LIVIERO, 942, Vila Liviero, São Paulo</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>-23.6441482</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-46.5916661</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Avenida CAMINHO DO MAR, 2130, Rudge Ramos, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>-23.6681902</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-46.5678122</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Rua ALFERES BONILHA, 90, Centro, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-23.7147097</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-46.5505715</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Avenida MARIA SERVIDEI DEMARCHI, 1911, Demarchi, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>-23.7410206</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-46.5549895</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Avenida SENADOR VERGUEIRO, 4527, Rudge Ramos, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-23.6648635</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-46.5618634</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Rua RUA AMÉRICO BRASILIENSE, 526, Centro, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-23.7130778</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-46.5475538</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Rua DJALMA DUTRA, 34, Centro, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>-23.7037085</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-46.5544754</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Rua SENHORA MARIA APARECIDA PESSUTTI MILLEGO, 250, Parque Campolim, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>-23.52819</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-47.46832</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Rua MARIA CINTO DE BIAGGI, 164, Jardim Santa Rosalia, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>-23.4901946</v>
+      </c>
+      <c r="C75" t="n">
+        <v>-47.4450244</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Rua HAMLETO MENQUINI, 41, PARQUE RES.POTIGUARA, Itu</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C76" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Rua A.ESQUINA COM AL.ALICE, 127, Jardim Convenção, Itu</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C77" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Rua JOAO JANUARIO PAMPLONA, 154, Jardim Santa Tereza, Itu</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>-23.2651732</v>
+      </c>
+      <c r="C78" t="n">
+        <v>-47.3078431</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Praça DA INDEPENDENCIA, 31, Centro, Itu</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>-23.2646325</v>
+      </c>
+      <c r="C79" t="n">
+        <v>-47.2972233</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Rua 7 de Setembro, 49, Centro, Itu</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>-23.261568</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-47.296937</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Rua MARCIA PIERRONI, 78, ITU NOVO CENTRO, Itu</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Avenida MONSENHOR SECKLER, 547, Vila Alcala, Porto Feliz</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>-23.212394</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-47.5151118</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Rua AMARO J ANDRADE, 428, JD.MARIA PAULINA, Boituva</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>-23.28333</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-47.67222</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Rua CARLOS GOMES, 73, VILA ANGELICA, Porto Feliz</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>-23.2172595</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-47.5187883</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Rua JOAO DE CAMARGO, 352, PQ RES NOVO MUNDO, Boituva</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>-23.28333</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-47.67222</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR CAMPOS, 1285, NOSSA SENHORA DE LOURDES, Cerquilho</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>-23.1543214</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-47.7407472</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Praça DOM PEDRO I, 136, Centro, Itu</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>-23.2611979</v>
+      </c>
+      <c r="C87" t="n">
+        <v>-47.3033708</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Avenida ELIAS MALUF, 1835, Wanel Ville II, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>-23.50167</v>
+      </c>
+      <c r="C88" t="n">
+        <v>-47.45806</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR AALTINO ARANTES, 1014, JD GUADALUPE, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-23.50167</v>
+      </c>
+      <c r="C89" t="n">
+        <v>-47.45806</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Praça COMENDADOR NICOLAU SCARPA, 80, Centro, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-23.4980894</v>
+      </c>
+      <c r="C90" t="n">
+        <v>-47.4605758</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR LUIZ MENDES DE ALMEIDA, 663, VILA ESPIRITO SANTO, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-23.50167</v>
+      </c>
+      <c r="C91" t="n">
+        <v>-47.45806</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Avenida ANGÉLICA, 567, Vila Angélica, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-23.4828323</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-47.479987</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Avenida RIUSAKU KANIZAWA, 865, Lopes de Oliveira, Sorocaba</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-23.50167</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-47.45806</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Rua Andradina, 178, Cidade Nova I, Itu</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Rua PROFESSOR TOLEDO, 194, Centro, Araçoiaba da Serra</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-23.5050525</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-47.6182181</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Avenida VINTE E SETE DE OUTUBRO, 280, Vila Sorocabana, Mairinque</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-23.54583</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-47.18333</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Rua CAMPINAS, 77, Cidade Nova I, Itu</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Rua DO CRUZEIRO, 37, Centro, Tatuí</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-23.3442565</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-47.8484795</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Avenida WENCESLAU BRAZ, 640, VILA POPULAR, Itapetininga</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-23.563419</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-48.0152876</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Rua ARY DE ALMEIDA, 71, CAMBUI, Itapetininga</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-23.59167</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-48.05306</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Avenida PEIXOTO GOMIDE, 395, Centro, Itapetininga</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-23.5854455</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-48.0491309</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Rua SANTO ANTONIO, 496, Centro, Tatuí</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-23.3525263</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-47.8533027</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Rua TEOFILO ANDRADE GAMA, 3595, JD.ROSA GARCIA, Tatuí</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>-23.35556</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-47.85694</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Rua WINSTON CHURCHIL, 416, Parque Bela Vista, Salto</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>-23.20083</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-47.28694</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Rua SERAPHIN GILBERTO CANDELLO, 1519, JD SAO CONRADO, Indaiatuba</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-23.08842</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-47.2119</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Rua ADELIO PAZINATTO, 251, JARDIM AEROPORTO I, Itu</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Rua Paulo Eduardo Xavier de Toledo, 510, São Luiz, Itu</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-23.2694013</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-47.278959</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Rodovia Marechal Rondon Km 104,5, S/N, Jardim Paraiso, Itu</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Rua Professor Acacio de Vasconcelos de Camar, 481, Sao Luis, Itu</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-2.52972</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-44.30278</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Avenida PRESIDENTE VARGAS, 671, VILA VITORIA II, Indaiatuba</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-23.08842</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-47.2119</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR ERMILINDO MAFFEI, 1199, SAO LUIZ, Itu</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C111" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR ERMELINDO MAFFEI, 1199, SAO LUIZ, Itu</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-23.2642243</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-47.280937</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR EUGENIO DA FONSECA, 383, JARDIM AEROPORTO I, Itu</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Avenida DR. ERMELINDO MAFFEI, 734, SAO LUIZ, Itu</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-23.2645744</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-47.2828289</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR SILVA CASTRO, 78, Vila Nova, Itu</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-23.2722159</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-47.2915065</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Rua ANTONIO ANGELINO ROSSI, 781, Jardim Morada do Sol, Indaiatuba</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-23.1255744</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-47.2383474</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Rua DO RETIRO, 2400, Vila das Hortencias, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-23.1797337</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-46.9055741</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Avenida ANTONIO PINCINATO, 21, Recanto Quarto Centenario, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Rua REINALDO ORSI, 50, Retiro, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-23.1800435</v>
+      </c>
+      <c r="C119" t="n">
+        <v>-46.9137544</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Avenida OSMUNDO DOS SANTOS PELLEGRINI, 1000, Recanto Quarto Centenario, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C120" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Avenida QUATORZE DE DEZEMBRO, 2333, Vila Mafalda, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-23.2119361</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-46.8743426</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Rodovia VEREADOR GERALDO DIAS, S/N, PARQUE CENTENARIO, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-23.1372014</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-46.9204443</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Rua Do Retiro, 2235, Vila das Hortencias, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-23.1793859</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-46.9074326</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Avenida ANTONIO SEGRE, 504, Ponte de Campinas, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-23.1783051</v>
+      </c>
+      <c r="C124" t="n">
+        <v>-46.8974108</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Avenida ANTÔNIO FREDERICO OZANAN, 6001, Vila Rio Branco, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-23.172492</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-46.8916714</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Avenida HUMBERTO CERESER, 3.805, Jardim Caxambu, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-23.1496702</v>
+      </c>
+      <c r="C126" t="n">
+        <v>-46.8464315</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Rua JOAO FERRARA, 233, Jd. Cica, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Avenida SAMUEL MARTINS, 2423, Jardim do Lago, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>-23.2023916</v>
+      </c>
+      <c r="C128" t="n">
+        <v>-46.8741897</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Avenida Dos Imigrantes Italianos, 1973, Colonia, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-23.1882135</v>
+      </c>
+      <c r="C129" t="n">
+        <v>-46.8563349</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Rua BOM JESUS DE PIRAPORA, 2881, Vila Rami, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-23.2124794</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-46.8807919</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR OLAVO GUIMARAES, 253, Vila Arens, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>-23.1971918</v>
+      </c>
+      <c r="C131" t="n">
+        <v>-46.8745837</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Rua FERNAO DIAS PAES LEME, 683, Vila Aparecida, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-23.178214</v>
+      </c>
+      <c r="C132" t="n">
+        <v>-46.8668431</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Avenida Das Industrias, S/N, Engordadouro, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-23.1573721</v>
+      </c>
+      <c r="C133" t="n">
+        <v>-46.9343319</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Rua HISASCHI NAGAOKA, 3595, Jardim São Vicente, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-23.1451635</v>
+      </c>
+      <c r="C134" t="n">
+        <v>-46.9157263</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Avenida BENTO FIGUEREDO, 275, Vila Marlene, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C135" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR ADILSON RODRIGUES, S/N, JD.DAS SAMAMBAIAS, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C136" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Rua IOLANDA LATORRE CASCALDI, 40, LOTEAMENTO PARQUE DOS CANARIOS, Itatiba</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-23.00583</v>
+      </c>
+      <c r="C137" t="n">
+        <v>-46.83889</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Avenida ITATIBA, 150, Vila Liberdade, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-23.1750855</v>
+      </c>
+      <c r="C138" t="n">
+        <v>-46.8866096</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Rua JORGE ZOLNER, 95, Centro, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C139" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Rua RETIRO, DO, 925, VILA VIRGINIA, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>-23.1865399</v>
+      </c>
+      <c r="C140" t="n">
+        <v>-46.8985646</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Rua DO RETIRO, 2173, VILA VIOTTO, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C141" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Rua ADEMAR CLEMENTE NUNES, 154, Jacaré, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-23.250621</v>
+      </c>
+      <c r="C142" t="n">
+        <v>-47.054118</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Avenida PASCHOAL SANTI, 957, Vilarejo, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-23.2704381</v>
+      </c>
+      <c r="C143" t="n">
+        <v>-47.0581919</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Rua ROMEU SECKLER MACHADO, 105, Parque Eloy Chaves, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-23.18639</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-46.88417</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Avenida VEREADOR JOSE DONATO, 1385, Vilarejo, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-23.2679985</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-47.0564143</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Alameda CINCO, 174, CECOM JACARE, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-23.2425</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-47.05889</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Rua MARECHAL DEODORO DA FONSECA, 240, Centro, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-23.3069129</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-47.1334429</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Rua Marilia, 60, Vila Hortolandia, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-23.169235</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-46.909441</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Rua MARANHAO, 256, Jacaré, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-23.2495822</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-47.0561778</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Avenida BENEDITO CASTILHO DE ANDRADE, 1300, Parque Residencial Eloy Chaves, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>41.74019</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-7.46879</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Rua DO CARACOL, 500, JACARE, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-23.2494164</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-47.0525913</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Avenida JOSE TONOLI, 336, Centro, Itupeva</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-23.15306</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-47.05778</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Praça SÃO PAULO, 97, Centro, Itupeva</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-23.1521891</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-47.0570231</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Rua JOÃO SABIO GONÇALVES, 132, Jardim Ana Luiza, Itupeva</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-23.1582683</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-47.0422031</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Rua VICENTE TONOLLI, 114, Monte Serrat, Itupeva</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-23.15306</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-47.05778</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Avenida FRANCISCO NOBRE, 100, Medeiros, Jundiaí</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-23.1769865</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-46.9837549</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Rodovia MARIO TONOLI, 177, EST.HIDRO MINERAL SANTA ELIZA, Itupeva</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-23.15306</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-47.05778</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Rua ALFREDO CARLOS SAO JOSE, 47, JD EUROPA, Itupeva</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-23.15306</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-47.05778</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Rua MERDADO ZACHI, 44, VILA SAO JOAO, Itupeva</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-23.1510101</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-47.0506607</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Rua ALEXANDRINA MATHIAS DE OLIVEIRA, 77, PARQUE DAS HORTENSIAS, Itupeva</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-23.15306</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-47.05778</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Rua SANTA CLARA, 175, Residencial Santo Antonio, Itupeva</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-23.1624922</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-47.0454896</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Rua ANGELO STECK, 41, VILA NOVA, Louveira</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-23.0869505</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-46.9515972</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR ALBERTO GALLO, 226, CIDADE UNIVERSITARIA II, Campinas</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-22.90556</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-47.06083</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Avenida ANTONIO STECK, 129, SAGRADO CORACAO DE JESUS, Louveira</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-23.08639</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-46.95056</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Avenida DR ARLINDO JOAQUIM DE LEMOS, 1421, VL LEMOS, Campinas</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-22.90556</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-47.06083</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Avenida ARNALDO BIAGIOLLI, 151, Pinheirinho, Vinhedo</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>-23.02972</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-46.97528</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Rua SANTA CRUZ (JD.SANTA ROSA), 500, SANTA ROSA, Vinhedo</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-23.02972</v>
+      </c>
+      <c r="C167" t="n">
+        <v>-46.97528</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Avenida Benedito Storani, 762, Residencial Aquario, Vinhedo</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-23.02972</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-46.97528</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Estrada MUNICIPAL DA CAPELA, S/N, VISTA ALEGRE, Vinhedo</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-23.02972</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-46.97528</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Estrada Da Boiada, 730, Marambaia, Vinhedo</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-23.0363831</v>
+      </c>
+      <c r="C170" t="n">
+        <v>-46.9865407</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Rua TREZE DE MAIO, 1050, Vila Olivo, Valinhos</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-22.9736086</v>
+      </c>
+      <c r="C171" t="n">
+        <v>-46.9928558</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Avenida ROSA BELMIRO RAMOS, 92, Ortizes, Valinhos</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-22.9780597</v>
+      </c>
+      <c r="C172" t="n">
+        <v>-46.9888118</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Rua JOSE CARLOS FERRARI, 79, Residencial Santa Maria, Valinhos</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-22.9428235</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-46.9990431</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Avenida PROFESSOR MANOEL JOSE PEDROSO, 340, Parque Bahia, Cotia</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-23.6081727</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-46.9216154</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Rodovia RAPOSO TAVARES, S/N, Lageadinho, Cotia</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-23.5895637</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-46.8176687</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rua VICENTE CELESTINO, 184, Parque Mirante da Mata, Cotia</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-23.6176627</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-46.9548532</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Estrada DA AGUA ESPRAIADA, 2713, CHAC.TROPICAL (CAUCAIA ALTO), Cotia</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>-23.60389</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-46.91917</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Avenida NOSSA SENHORA DO CARMO, 2058, Carmo Messias, Ibiúna</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-23.741308</v>
+      </c>
+      <c r="C178" t="n">
+        <v>-47.0546442</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Estrada MORRO GRANDE, 1895, Jardim Isis, Cotia</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>-23.6362615</v>
+      </c>
+      <c r="C179" t="n">
+        <v>-46.9549798</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Rua QUINZE DE PIRACICABA, 19, Jardim Sandra, Cotia</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-23.60389</v>
+      </c>
+      <c r="C180" t="n">
+        <v>-46.91917</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Rua JOSE MANOEL DE ALMEIDA, 669, Jd. Europa, Vargem Grande Paulista</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>-21.83222</v>
+      </c>
+      <c r="C181" t="n">
+        <v>-46.89361</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Avenida EID MANSUR, 18, Parque São George, Cotia</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-23.60389</v>
+      </c>
+      <c r="C182" t="n">
+        <v>-46.91917</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Rua PIEMONTESES, DOS, 108, Jardim do Lago, São Paulo</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C183" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Avenida GIOVANNI GRONCHI, 5930, Vila Andrade, São Paulo</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-23.6316602</v>
+      </c>
+      <c r="C184" t="n">
+        <v>-46.7375626</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR CANDIDO MOTTA FILHO, 176, CIDADE SAO FRANCISCO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-20.36457</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-50.67463</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Avenida JOAO PAULO ABLAS, 45, Jardim da Glória, Cotia</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-23.5977232</v>
+      </c>
+      <c r="C186" t="n">
+        <v>-46.8415226</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Avenida PROFESSOR JOAQUIM BARRETO, 1133, Centro, Cotia</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>-23.60389</v>
+      </c>
+      <c r="C187" t="n">
+        <v>-46.91917</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Rua DOMINGOS ROSALIA, 15, Jardim São Jorge, São Paulo</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>-22.11667</v>
+      </c>
+      <c r="C188" t="n">
+        <v>-51.56667</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Avenida Do Vaticano, 39, Jd João XXIII, São Paulo</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Rua PADRE JUAN DE SOLORZANO, 185, Jardim João XXIII, São Paulo</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>-23.6034696</v>
+      </c>
+      <c r="C190" t="n">
+        <v>-46.7906707</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Rua DR. ULPIANO DA COSTA MANSO, 151, Butantã, São Paulo</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>-23.57374</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-46.71936</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Avenida nacoes unidas, 13947, Vila Cordeiro, São Paulo</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>-22.48194</v>
+      </c>
+      <c r="C192" t="n">
+        <v>-47.45667</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Avenida PROFESSOR FRANCISCO MORATO, 3030, BUTANTA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>-23.5769521</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-46.7078899</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Avenida GIOVANNI GRONCHI, 2799, Morumbi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>-23.5951062</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-46.7178467</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Avenida MAJ.SYLVIO DE MAGALHAES PADILHA, 16741, JARDIM MORUMBI, São Paulo</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C195" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Avenida MINISTRO LAUDO FERREIRA DE CAMARGO, 190, Jardim Peri Peri, São Paulo</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>-7.60333</v>
+      </c>
+      <c r="C196" t="n">
+        <v>-43.02556</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Rua PASQUALE GALUPI, 1396, PARAISOPOLIS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C197" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Rua RUDOLF LUTZE, 227, PARAISOPOLIS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C198" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Rua Piracuama, 454, Perdizes, São Paulo</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>-23.5381537</v>
+      </c>
+      <c r="C199" t="n">
+        <v>-46.6832457</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Rua PALESTRA ITALIA, 500, Perdizes, São Paulo</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-23.5266821</v>
+      </c>
+      <c r="C200" t="n">
+        <v>-46.680867</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Avenida BOLONHA, 200, JAGUARE, São Paulo</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-23.5485817</v>
+      </c>
+      <c r="C201" t="n">
+        <v>-46.7469144</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Rua TURIASSU, 1205, Perdizes, São Paulo</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>-23.5315747</v>
+      </c>
+      <c r="C202" t="n">
+        <v>-46.6746778</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Rua AURÉLIA, 1973, Vila Romana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>-23.5270441</v>
+      </c>
+      <c r="C203" t="n">
+        <v>-46.6978489</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Avenida Pompeia, 1115, Vila Pompéia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>-23.5339573</v>
+      </c>
+      <c r="C204" t="n">
+        <v>-46.6874548</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Rua GUARICANGA, 321, Lapa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-23.5227167</v>
+      </c>
+      <c r="C205" t="n">
+        <v>-46.7104308</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Rua Corrientes, 29, Lapa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>-23.5215035</v>
+      </c>
+      <c r="C206" t="n">
+        <v>-46.7111832</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Avenida POMPEIA, 2180, Vila  Pompeia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>-23.5424776</v>
+      </c>
+      <c r="C207" t="n">
+        <v>-46.6903372</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Rua Pio XI, 2360, Lapa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>-23.5406793</v>
+      </c>
+      <c r="C208" t="n">
+        <v>-46.7169032</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Rua DUILIO, 636, Agua Branca, São Paulo</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>-23.5254777</v>
+      </c>
+      <c r="C209" t="n">
+        <v>-46.6931616</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Rua BARAO DE TEFE, 79, Agua Branca, São Paulo</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-23.2476</v>
+      </c>
+      <c r="C210" t="n">
+        <v>-47.63168</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Rua HERBART, 47, Lapa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>-23.5197686</v>
+      </c>
+      <c r="C211" t="n">
+        <v>-46.7014124</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Rua MATHEUS GROU, 159, Pinheiros, São Paulo</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>-23.56729</v>
+      </c>
+      <c r="C212" t="n">
+        <v>-46.69232</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Rua PEDRO CRISTI, 89, Pinheiros, São Paulo</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>-23.5656156</v>
+      </c>
+      <c r="C213" t="n">
+        <v>-46.6924088</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Rua DEPUTADO LACERDA FRANCO, 553, Pinheiros, São Paulo</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>-23.5606538</v>
+      </c>
+      <c r="C214" t="n">
+        <v>-46.6928092</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Rua ALIANÇA LIBERAL, 322, Vila Leopoldina, São Paulo</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>-23.5222368</v>
+      </c>
+      <c r="C215" t="n">
+        <v>-46.7253714</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Rua Nestor Pestana, 40, Consolação, São Paulo</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-23.55242</v>
+      </c>
+      <c r="C216" t="n">
+        <v>-46.65735</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Rua FREI CANECA, 569, CONSOLACAO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-23.5541784</v>
+      </c>
+      <c r="C217" t="n">
+        <v>-46.6524183</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Avenida PAULISTA, 854, Bela Vista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>-23.5656701</v>
+      </c>
+      <c r="C218" t="n">
+        <v>-46.6507273</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Rua SANTO ANTONIO, 489, Bela Vista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>-23.5541481</v>
+      </c>
+      <c r="C219" t="n">
+        <v>-46.6475148</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Avenida PAULISTA, 2064, Bela Vista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>-23.5698798</v>
+      </c>
+      <c r="C220" t="n">
+        <v>-46.6459798</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Rua José Getulio, 142, Liberdade, São Paulo</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>-23.5672233</v>
+      </c>
+      <c r="C221" t="n">
+        <v>-46.6360806</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Avenida REBOUCAS, 1001, CERQUEIRA CESAR, São Paulo</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>-23.5603809</v>
+      </c>
+      <c r="C222" t="n">
+        <v>-46.6713758</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Rua CAPITÃO MOR PASSOS, 228, Pari, São Paulo</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>-23.527587</v>
+      </c>
+      <c r="C223" t="n">
+        <v>-46.6153585</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Rua PAULO ANDRIGHETTI, 470, Pari, São Paulo</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-23.5263355</v>
+      </c>
+      <c r="C224" t="n">
+        <v>-46.6061916</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Rua Martim Francisco, 723, Santa Cecília, São Paulo</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>-23.5429535</v>
+      </c>
+      <c r="C225" t="n">
+        <v>-46.6545662</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Rua ANHAIA, 748, Bom Retiro, São Paulo</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-23.5233746</v>
+      </c>
+      <c r="C226" t="n">
+        <v>-46.6455506</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Rua MARTIM FRANCISCO, 753, Vila Buarque, São Paulo</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C227" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Avenida ANGELICA, 526, SANTA CECILIA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>-23.5374825</v>
+      </c>
+      <c r="C228" t="n">
+        <v>-46.654665</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Rua RIBEIRO DE LIMA, 610, Bom Retiro, São Paulo</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-23.5312906</v>
+      </c>
+      <c r="C229" t="n">
+        <v>-46.6386411</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Rua RODRIGUES SANTOS, 673, Pari, São Paulo</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>-23.5343297</v>
+      </c>
+      <c r="C230" t="n">
+        <v>-46.6199082</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Rua JOÃO TEODORO, 842, Brás, São Paulo</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>-23.5345723</v>
+      </c>
+      <c r="C231" t="n">
+        <v>-46.6244535</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Rua ELIZA WHITAKER, 119, BRAS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>-23.5359001</v>
+      </c>
+      <c r="C232" t="n">
+        <v>-46.6210442</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Rua DJALMA DUTRA, 266, Luz, São Paulo</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>-23.5337146</v>
+      </c>
+      <c r="C233" t="n">
+        <v>-46.6286686</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Rua São Caetano, 352, Luz, São Paulo</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>-23.535119</v>
+      </c>
+      <c r="C234" t="n">
+        <v>-46.6296567</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Rua SAO CAETANO, 638, Luz, São Paulo</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>-23.5355583</v>
+      </c>
+      <c r="C235" t="n">
+        <v>-46.6268669</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Rua ALEXANDRINO PEDROSO, 247, Canindé, São Paulo</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>-23.5328079</v>
+      </c>
+      <c r="C236" t="n">
+        <v>-46.6210471</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Rua ALEXANDRINO PEDROSO, 264, CANINDE, São Paulo</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>-23.5329151</v>
+      </c>
+      <c r="C237" t="n">
+        <v>-46.6212143</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Rua RODRIGUES DOS SANTOS, 91, BRAS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>-23.5390004</v>
+      </c>
+      <c r="C238" t="n">
+        <v>-46.6208958</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Rua LIBERO BADARO, 480, Centro, São Paulo</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>-21.2639265</v>
+      </c>
+      <c r="C239" t="n">
+        <v>-48.5110736</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Rua BARAO DE LADARIO, 312, BRAS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>-23.5393113</v>
+      </c>
+      <c r="C240" t="n">
+        <v>-46.6190086</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Rua General Chagas Santos, 815, Vila da Saúde, São Paulo</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>-23.6165734</v>
+      </c>
+      <c r="C241" t="n">
+        <v>-46.6288974</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Avenida ARMANDO FERRENTINI, 406, Aclimação, São Paulo</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>-23.5746722</v>
+      </c>
+      <c r="C242" t="n">
+        <v>-46.6351096</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Rua DOMINGOS DE MORAIS, 2564, Vila Mariana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>-23.5990047</v>
+      </c>
+      <c r="C243" t="n">
+        <v>-46.6369432</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Rua DOMINGOS DE MORAIS, 1999, Vila Mariana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>-23.593603</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-46.6360456</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Rua LUIS GOIS, 1877, MIRANDOPOLIS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>-23.6040646</v>
+      </c>
+      <c r="C245" t="n">
+        <v>-46.6460655</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Avenida Onze de Junho, 744, Vila Clementino, São Paulo</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C246" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Rua VIGARIO ALBERNAZ, 695, Vila Gumercindo, São Paulo</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>-23.6067941</v>
+      </c>
+      <c r="C247" t="n">
+        <v>-46.6214627</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR BACELAR, 1231, Vila Clementino, São Paulo</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>-23.596051</v>
+      </c>
+      <c r="C248" t="n">
+        <v>-46.647796</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Rua GASPAR FERNANDES, 416, Vila Monumento, São Paulo</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>-23.5752879</v>
+      </c>
+      <c r="C249" t="n">
+        <v>-46.6161175</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Rua ABILIO SOARES, 981, Paraíso, São Paulo</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>-23.5770961</v>
+      </c>
+      <c r="C250" t="n">
+        <v>-46.6504672</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Alameda JOAQUIM EUGENIO DE LIMA, 1682, Jardim Paulista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>-23.5740007</v>
+      </c>
+      <c r="C251" t="n">
+        <v>-46.658657</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Avenida LINS DE VASCONCELOS, 73, Cambuci, São Paulo</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>-23.5683231</v>
+      </c>
+      <c r="C252" t="n">
+        <v>-46.6218781</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Rua TUTÓIA, 430, Paraíso, São Paulo</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>-23.5783097</v>
+      </c>
+      <c r="C253" t="n">
+        <v>-46.6510606</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Rua DOMINGOS DE MORAIS, 286, Vila Mariana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>-23.5796817</v>
+      </c>
+      <c r="C254" t="n">
+        <v>-46.6404127</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Rua CACHOEIRA DOURADA, 130, Jardim Maria Estela, São Paulo</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C255" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Rua DOM VILARES, 1700, Vila das Merces, São Paulo</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>-23.6243148</v>
+      </c>
+      <c r="C256" t="n">
+        <v>-46.605193</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Rua ALVARO DO VALE, 412, Ipiranga, São Paulo</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>-23.6013383</v>
+      </c>
+      <c r="C257" t="n">
+        <v>-46.5935479</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Rua CORONEL FRANCISCO INACIO, 96, Vila Moinho Velho, São Paulo</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>-23.6098521</v>
+      </c>
+      <c r="C258" t="n">
+        <v>-46.6010986</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Rua SALVADOR PIRES DE LIMA, 542, Sacoma, São Paulo</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>-23.6140251</v>
+      </c>
+      <c r="C259" t="n">
+        <v>-46.5955731</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Avenida NAZARE, 1299, Ipiranga, São Paulo</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>-23.5954603</v>
+      </c>
+      <c r="C260" t="n">
+        <v>-46.6097547</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Avenida Padre Arlindo Vieira, 3255, Sacoma, São Paulo</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>-23.6378089</v>
+      </c>
+      <c r="C261" t="n">
+        <v>-46.6078562</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Rua TITO OLIANI, 1010, SAO JOAO CLIMARO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C262" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Rua Dr.Ivo Define Frasca, 95/99, Vila Olímpia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>-23.593873</v>
+      </c>
+      <c r="C263" t="n">
+        <v>-46.6738906</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Avenida PADRE ANTÔNIO JOSÉ DOS SANTOS, 296, Cidade Monções, São Paulo</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>-20.85028</v>
+      </c>
+      <c r="C264" t="n">
+        <v>-50.09167</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Rua CANARIO, 390, INDIANOPOLIS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>-23.5996044</v>
+      </c>
+      <c r="C265" t="n">
+        <v>-46.6653552</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Avenida VEREADOR JOSÉ DINIZ, 2329, Brooklin Paulista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C266" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Avenida JURUCE, 575, Indianópolis, São Paulo</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>-23.6098536</v>
+      </c>
+      <c r="C267" t="n">
+        <v>-46.6606524</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Avenida ALCIDES SANGIRARDI, 280, Cidade Jardim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>-22.19278</v>
+      </c>
+      <c r="C268" t="n">
+        <v>-46.74667</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Rua PAIS DE ARAUJO, 119, Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>-23.5836031</v>
+      </c>
+      <c r="C269" t="n">
+        <v>-46.6812825</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Avenida MASCOTE, 429, Vila Mascote, São Paulo</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>-23.6486173</v>
+      </c>
+      <c r="C270" t="n">
+        <v>-46.6656941</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Avenida SANTA CATARINA, 2343, Vila Mascote, São Paulo</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>-23.6446138</v>
+      </c>
+      <c r="C271" t="n">
+        <v>-46.6649141</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Rua JOAQUIM FLORIANO, 254, Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>-23.5838463</v>
+      </c>
+      <c r="C272" t="n">
+        <v>-46.672325</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Avenida BRASILIA, 581, Campanário, Diadema</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>-23.6682373</v>
+      </c>
+      <c r="C273" t="n">
+        <v>-46.6185895</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Rua SANTA BERNADETE, 344, Canhema, Diadema</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>-23.6728106</v>
+      </c>
+      <c r="C274" t="n">
+        <v>-46.6037944</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Avenida BRASILIA, 887, Jd.Campanario, Diadema</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-23.68611</v>
+      </c>
+      <c r="C275" t="n">
+        <v>-46.62278</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Rua AFONSO MONTEIRO DA CRUZ, 1150, Serraria, Diadema</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-23.68611</v>
+      </c>
+      <c r="C276" t="n">
+        <v>-46.62278</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Avenida AVENIDA DO TABOAO, 3611, TABOAO, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>-23.6614734</v>
+      </c>
+      <c r="C277" t="n">
+        <v>-46.6050536</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Avenida ANTONIO SYLVIO CUNHA BUENO, 386, JARDIM UNIAO, Diadema</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>-23.68611</v>
+      </c>
+      <c r="C278" t="n">
+        <v>-46.62278</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Avenida ENGENHEIRO ARMANDO DE ARRUDA PEREIRA, 4.684, Vila do Encontro, São Paulo</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-23.6559333</v>
+      </c>
+      <c r="C279" t="n">
+        <v>-46.6366131</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Rua LUIZ DE VASCONCELOS (JD MARILENE), 127, Vila Nogueira, Diadema</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>-23.68611</v>
+      </c>
+      <c r="C280" t="n">
+        <v>-46.62278</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Avenida DO CAFÉ, 156, Vila Guarani, São Paulo</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>-23.635652</v>
+      </c>
+      <c r="C281" t="n">
+        <v>-46.6399683</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Avenida PRESIDENTE JUSCELINO, 333, Piraporinha, Diadema</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-23.6830194</v>
+      </c>
+      <c r="C282" t="n">
+        <v>-46.5922176</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Rua PAINEIRAS, 9, Eldorado, Diadema</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-23.68611</v>
+      </c>
+      <c r="C283" t="n">
+        <v>-46.62278</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Rua ROSARIA, 213, Vila Sacadura Cabral, Santo André</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>-23.6547393</v>
+      </c>
+      <c r="C284" t="n">
+        <v>-46.5561484</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Avenida Jean Lieutaud, 76, Jd. Santa Tereza, Rio Grande da Serra</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>9.52229</v>
+      </c>
+      <c r="C285" t="n">
+        <v>138.0854</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Rua PREF. CARLOS JOE CARLSON, 40, Centro, Rio Grande da Serra</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>9.52229</v>
+      </c>
+      <c r="C286" t="n">
+        <v>138.0854</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Avenida PALMARES, 1000, Vila Palmares, Santo André</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>-23.6498196</v>
+      </c>
+      <c r="C287" t="n">
+        <v>-46.5614199</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Avenida PAPA JOAO XXIII, 555, LOTEAMENTO INDL CORAL, Mauá</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>-23.66778</v>
+      </c>
+      <c r="C288" t="n">
+        <v>-46.46139</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Rua PRESIDENTE ARTHUR DA COSTA E SILVA, 453, Parque São Vicente, Mauá</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-22.7321</v>
+      </c>
+      <c r="C289" t="n">
+        <v>-43.36924</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Avenida PEREIRA BARRETO, 42, PARAISO, Santo André</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>-23.6677389</v>
+      </c>
+      <c r="C290" t="n">
+        <v>-46.5334051</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Rua QUATA, S/N, Vila Palmares, Santo André</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>-23.6512228</v>
+      </c>
+      <c r="C291" t="n">
+        <v>-46.5596122</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Avenida NACOES, DAS, 1600, PARQUE NOVO ORATORIO, Santo André</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>-23.6408129</v>
+      </c>
+      <c r="C292" t="n">
+        <v>-46.4989662</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Avenida MIRO ATILIO PEDUZZI (4 A DIVISAO), 412, TANQUE CAIO, Ribeirão Pires</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>-23.71056</v>
+      </c>
+      <c r="C293" t="n">
+        <v>-46.41333</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Rua PATAGONIA, 580, QUARTA DIVISAO, Ribeirão Pires</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>-23.6594892</v>
+      </c>
+      <c r="C294" t="n">
+        <v>-46.370775</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Avenida DONA BENEDITA FRANCA DA VEIGA, 2464, ST BELA VISTA, Mauá</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>1.61667</v>
+      </c>
+      <c r="C295" t="n">
+        <v>7.41667</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Estrada DOS CAMPONESES (JD ICARAI), 18, DOS FINCO, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>-23.69389</v>
+      </c>
+      <c r="C296" t="n">
+        <v>-46.565</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Estrada HENRIQUE ROSA, 670, FINCO (JD TUPA), São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>-23.69389</v>
+      </c>
+      <c r="C297" t="n">
+        <v>-46.565</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Avenida SENADOR FLAQUER, 862, Vila Euclides, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>-23.6927638</v>
+      </c>
+      <c r="C298" t="n">
+        <v>-46.5586558</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Avenida HUMBERTO ALENCAR CASTELO BRANCO, 3120, ALVEZ DIAS, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>-23.69389</v>
+      </c>
+      <c r="C299" t="n">
+        <v>-46.565</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Rua EUGENIA SA VITALE, 111, Vila Santa Luzia, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>-23.6596337</v>
+      </c>
+      <c r="C300" t="n">
+        <v>-46.6109574</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Avenida PEREIRA BARRETO, 1095, Vila Baeta Neves , São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>-23.6883817</v>
+      </c>
+      <c r="C301" t="n">
+        <v>-46.5483089</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Rua Lazara de Oliveira Leite, 371, Vila Jerusalém, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>-23.69389</v>
+      </c>
+      <c r="C302" t="n">
+        <v>-46.565</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Avenida DO TABOAO, 3841, Taboão, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>-23.6533392</v>
+      </c>
+      <c r="C303" t="n">
+        <v>-46.5919193</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Rua ATLANTICA, 230, Jardim do Mar, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>-23.6910052</v>
+      </c>
+      <c r="C304" t="n">
+        <v>-46.5552196</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Rua MMDC, 546, PAULICEIA, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>-23.6747014</v>
+      </c>
+      <c r="C305" t="n">
+        <v>-46.5915321</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Rua DOS VIANAS, 2781, Baeta Neves, São Bernardo do Campo</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>-23.707437</v>
+      </c>
+      <c r="C306" t="n">
+        <v>-46.5279233</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Alameda CASSAQUERA, 575, Santa Maria, São Caetano do Sul</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>-23.6281114</v>
+      </c>
+      <c r="C307" t="n">
+        <v>-46.5537109</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Avenida ORATORIO, DO, 5179, Jardim  Angela, São Paulo</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C308" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Alameda TERRACOTA, 545, CERAMICA, São Caetano do Sul</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>-23.6265706</v>
+      </c>
+      <c r="C309" t="n">
+        <v>-46.5808031</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Rua VOTORANTIM, 311, Barcelona, São Caetano do Sul</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>-23.6191958</v>
+      </c>
+      <c r="C310" t="n">
+        <v>-46.5520096</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Rua SAO PAULO, 1840, Santa Paula, São Caetano do Sul</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>-23.6222179</v>
+      </c>
+      <c r="C311" t="n">
+        <v>-46.5634275</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Avenida SENADOR ROBERTO SIMONSEN, 1285, CERAMICA, São Caetano do Sul</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>-23.6245295</v>
+      </c>
+      <c r="C312" t="n">
+        <v>-46.5750235</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Avenida SAPOPEMBA, 2769, VILA REGENTE FEIJO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>-23.5652186</v>
+      </c>
+      <c r="C313" t="n">
+        <v>-46.5703631</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Avenida Satelite, 559 A, Cidade Satelite (São Mateus), São Paulo</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C314" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Avenida MARIA CURSI, 405, Cidade São Mateus, São Paulo</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>-23.60583</v>
+      </c>
+      <c r="C315" t="n">
+        <v>-46.47889</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Rua BENEDITO JACINTO MENDES, 77, Jardim Grimaldi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C316" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Rua Douradoquara, 221, Jardim Imperador, São Paulo</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C317" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Avenida ARQUITETO VILANOVA ARTIGAS, 132, CONJ HABIT. TEOTONIO VILELA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C318" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Avenida BARONESA DE MURITIBA, 138, PARQUE SAO RAFAEL, São Paulo</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>-23.6260894</v>
+      </c>
+      <c r="C319" t="n">
+        <v>-46.4706679</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Avenida SAPOPEMBA, 13309, Jardim Adutora, São Paulo</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C320" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR EDUARDO COTCHING, 489, Vila Formosa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>-23.5622446</v>
+      </c>
+      <c r="C321" t="n">
+        <v>-46.5554894</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Rua CANUTO SARAIVA, 540, Mooca, São Paulo</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>-23.5634272</v>
+      </c>
+      <c r="C322" t="n">
+        <v>-46.6017851</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Avenida TRUMAIN, 608, Vila Formosa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>-23.564728</v>
+      </c>
+      <c r="C323" t="n">
+        <v>-46.5357888</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Avenida SAO LUCAS, 225, PARQUE SAO LUCAS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C324" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Rua Secundino Domingues, 70, Vila Prudente, São Paulo</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>-23.58845</v>
+      </c>
+      <c r="C325" t="n">
+        <v>-46.5798</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Rua MANAIAS, 245, Vila Zelina, São Paulo</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>-23.5893222</v>
+      </c>
+      <c r="C326" t="n">
+        <v>-46.5760476</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Rua JOSE ZAPPI, 57, Vila Prudente, São Paulo</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>-23.5806907</v>
+      </c>
+      <c r="C327" t="n">
+        <v>-46.5855316</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Rua DAS HERAS, 470, Vila Lucia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C328" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Avenida VEREADOR ABEL FERREIRA, 2022, Chacara Mafalda, São Paulo</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C329" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Praça CANARIAS, SN, Vila Formosa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>-23.5666937</v>
+      </c>
+      <c r="C330" t="n">
+        <v>-46.5458712</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Avenida Sapopemba, 1304, Vila Leme, São Paulo</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>-23.38083</v>
+      </c>
+      <c r="C331" t="n">
+        <v>-48.73085</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Rua SERRA DO JAPI, 1137, Vila Gomes Cardim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>-23.5487034</v>
+      </c>
+      <c r="C332" t="n">
+        <v>-46.5682346</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR JOSE HIGINO, 111, VILA ORATORIO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C333" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Avenida ARICANDUVA, 5555, Vila Matilde, São Paulo</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>-23.5659937</v>
+      </c>
+      <c r="C334" t="n">
+        <v>-46.504011</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Rua TERESINA, 319, Vila Bertioga, São Paulo</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>-23.85444</v>
+      </c>
+      <c r="C335" t="n">
+        <v>-46.13861</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Rua SERRA DE BOTUCATU, 1703, Tatuapé, São Paulo</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>-23.5409791</v>
+      </c>
+      <c r="C336" t="n">
+        <v>-46.5552198</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Rua DOUTOR CLEMENTINO, 51, Belenzinho, São Paulo</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C337" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Rua AZEVEDO SOARES, 2700, Vila Gomes Cardim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>-23.5472404</v>
+      </c>
+      <c r="C338" t="n">
+        <v>-46.5579587</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Avenida RENATA, 346, CHACARA BELENZINHO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-23.5733062</v>
+      </c>
+      <c r="C339" t="n">
+        <v>-46.5413423</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Avenida SOUZA BANDEIRA, 644, Vila Nhocune, São Paulo</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C340" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Rua FRANCISCA DE PAULA, 815, VILA CARRAO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>-23.5597241</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-46.5313315</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Rua ITINGUCU, 771, VILA RE, São Paulo</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>-23.5243762</v>
+      </c>
+      <c r="C342" t="n">
+        <v>-46.5073607</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Rua DESEMBARGADOR CARNEIRO RIBEIRO, 439, Parque Artur Alvim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-23.5428163</v>
+      </c>
+      <c r="C343" t="n">
+        <v>-46.489922</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Rua AGENOR DE BARROS, 211, Vila Ponte Rasa, São Paulo</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-23.5088206</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-46.4894631</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Rua Aricá -  Mirim, 63, Vila São Francisco, São Paulo</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>-23.5245532</v>
+      </c>
+      <c r="C345" t="n">
+        <v>-46.4917133</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Rua PEIXOTO WERNECK, 353, Parque Artur Alvim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-23.5415346</v>
+      </c>
+      <c r="C346" t="n">
+        <v>-46.4868914</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Rua OLAVO EGIDIO DE SOUZA ARANHA, 1398, Parque Cisper, São Paulo</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C347" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Avenida Itaquera, 2226, V.S.Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Avenida Dos Latinos, 1264, Jd. Santa Terezinha, São Paulo</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>-23.36667</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-49.16667</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Rua Dominiciano Ribeiro, 32, Cidade Líder, São Paulo</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C350" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Avenida Cangaiba, 2758, Cangaíba, São Paulo</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>-23.504829</v>
+      </c>
+      <c r="C351" t="n">
+        <v>-46.5104354</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Avenida ENGENHEIRO SOARES DE CAMARGO, 450, Cidade Patriarca, São Paulo</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-23.540836</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-46.5007087</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Rua NOEL JOSE DA SILVA, 325, VILA SAO FRANCISCO ZONA LESTE, São Paulo</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Avenida ITAQUERA, 6735, CIDADE LIDER, São Paulo</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-23.5545913</v>
+      </c>
+      <c r="C354" t="n">
+        <v>-46.4855262</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Avenida cangaiba, 1659, CANGAIBA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>-23.5087736</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-46.5389309</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Rua ITINGUCU, 705, VILA RE, São Paulo</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-23.5242531</v>
+      </c>
+      <c r="C356" t="n">
+        <v>-46.5080409</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Rua BISPO E MARTINS, 4, JARDIM KERALUX, São Paulo</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-23.481508</v>
+      </c>
+      <c r="C357" t="n">
+        <v>-46.4942037</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Avenida Eng.Soares de Camargo, 349, Jardim Hercilia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Avenida RAGUEB CHOHFI, 7001, JARDIM TRES MARIAS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C359" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Avenida RAGUEB CHOHFI, 4831, Jardim Iguatemi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>-23.5944434</v>
+      </c>
+      <c r="C360" t="n">
+        <v>-46.4386057</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Estrada IGUATEMI, 3000, CONJ HABITACIONAL STª ETELVINA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Avenida dos Metarlugicos, 1111, Guaianazes, São Paulo</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>-23.54333</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-46.41083</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Avenida NAGIB FARAH MALUF, 100, Conj.Jose Bonifacio/Cohab II, São Paulo</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C363" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Rua JOSE VIEIRA GUIMARAES, 130, JARDIM SANTA TERESINHA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>-23.36667</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-49.16667</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Avenida METALURGICOS, DOS, 2193, Cidade Tiradentes, São Paulo</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>-23.5929333</v>
+      </c>
+      <c r="C365" t="n">
+        <v>-46.4066832</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Rua PASSARO PRETO, 759, VILA PAULISTANIA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>-22.57833</v>
+      </c>
+      <c r="C366" t="n">
+        <v>-49.40278</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Avenida NORDESTINA, 5834, Guaianazes, São Paulo</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>-23.54333</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-46.41083</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Rua MAXIMIANO BRANDÃO, 147, Guaianases, São Paulo</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>-23.54333</v>
+      </c>
+      <c r="C368" t="n">
+        <v>-46.41083</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Rua ROQUE BARBOSA DE MIRANDA, 112, JARDIM DOS IPES, Itaquaquecetuba</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>-23.48611</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-46.34833</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Rua TIBURCIO DE SOUZA, 1416, Itaim Paulista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>-23.5169989</v>
+      </c>
+      <c r="C370" t="n">
+        <v>-46.3889884</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Estrada PEDRO DA CUNHA ALBUQUERQUE LOPES, 2020, Perobal, Itaquaquecetuba</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>-23.4254939</v>
+      </c>
+      <c r="C371" t="n">
+        <v>-46.3358918</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Praça INDEPENDENCIA, 04, Centro, Ferraz de Vasconcelos</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>-23.5413194</v>
+      </c>
+      <c r="C372" t="n">
+        <v>-46.3682476</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Rodovia AYRTON SENNA DA SILVA, SN, JARDIM MARIA ELIZA, Itaquaquecetuba</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>-23.48611</v>
+      </c>
+      <c r="C373" t="n">
+        <v>-46.34833</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Avenida ANTONIO LOUZADA ANTUNES, 205, JARDIM PEDRO JOSE NUNES, São Paulo</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>-23.5021947</v>
+      </c>
+      <c r="C374" t="n">
+        <v>-46.4645312</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Rua ITAJUIBE, 1819, Itaim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>-23.5114891</v>
+      </c>
+      <c r="C375" t="n">
+        <v>-46.3839531</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Rua CANA VERDE, 110, JARDIM SILVESTRE, Itaquaquecetuba</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>-23.48611</v>
+      </c>
+      <c r="C376" t="n">
+        <v>-46.34833</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Avenida SANTOS DUMONT, 466, Centro Velho, Ferraz de Vasconcelos</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>-23.54083</v>
+      </c>
+      <c r="C377" t="n">
+        <v>-46.36861</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Rua MUSSI JORGE ANTONIO, 314, JARDIM AMAZONAS, Suzano</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>-23.6483044</v>
+      </c>
+      <c r="C378" t="n">
+        <v>-46.3141634</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Rua SEBASTIAO MOREIRA, 320, PARQUE PALMEIRAS, Suzano</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>-23.5425</v>
+      </c>
+      <c r="C379" t="n">
+        <v>-46.31083</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Avenida RICIERI JOSE MARCATTO, 510, Vila Suissa, Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>-23.5035597</v>
+      </c>
+      <c r="C380" t="n">
+        <v>-46.1570771</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Avenida JOÃO XXIII, 3554, Jd, São Pedro, Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>-23.52278</v>
+      </c>
+      <c r="C381" t="n">
+        <v>-46.18833</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Rua CORONEL SOUZA FRANCO, 440, Centro, Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>-23.5225229</v>
+      </c>
+      <c r="C382" t="n">
+        <v>-46.1953813</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Rua Edmilson Rodrigues Marcelino, 976, Cidade Miguel Brada, Suzano</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>-23.5425</v>
+      </c>
+      <c r="C383" t="n">
+        <v>-46.31083</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Estrada PORTAO HONDA, 2211, Jardim Revista, Suzano</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>-23.5190644</v>
+      </c>
+      <c r="C384" t="n">
+        <v>-46.294243</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Rua ROSEIRA, 35, PARQUE RECANTO MONICA, Mogi das Cruzes</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>-23.52278</v>
+      </c>
+      <c r="C385" t="n">
+        <v>-46.18833</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Rua JANDIATUBA, 89, Vila Andrade, São Paulo</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>-23.6295177</v>
+      </c>
+      <c r="C386" t="n">
+        <v>-46.7352945</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Avenida FRANCISCO ETTORE PEDRO MARI, 1021, VILA VIRGINIA, Taboão da Serra</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>9.52229</v>
+      </c>
+      <c r="C387" t="n">
+        <v>138.0854</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Avenida CARLOS CALDEIRA FILHO, 1555, CIDADE AUXILIADORA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C388" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Estrada CAMPO LIMPO, DO, 2482, Vila Prel, São Paulo</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C389" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Avenida ANACE, 710, Jardim Umarizal, São Paulo</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Avenida AUGUSTO BARBOSA TAVARES, 482, Jd. Maria Sampaio, São Paulo</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>-21.26667</v>
+      </c>
+      <c r="C391" t="n">
+        <v>-47.88333</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Rua PROFESSORA NINA STOCCO, 845, Jardim Catanduva, São Paulo</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>-21.13778</v>
+      </c>
+      <c r="C392" t="n">
+        <v>-48.97278</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Estrada CAMPO LIMPO, DO, 6433, Pirajussara, São Paulo</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C393" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Rua IBIUNA, 165, ARRAIAL PAULISTA, Taboão da Serra</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>-23.62611</v>
+      </c>
+      <c r="C394" t="n">
+        <v>-46.79167</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Rua CID NELSON JORDANO, 776, Jardim Salete, Taboão da Serra</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>-23.6279078</v>
+      </c>
+      <c r="C395" t="n">
+        <v>-46.7992198</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Rua TATUI, 190, JARDIM SAO EDUARDO, Embu das Artes</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>-23.6687615</v>
+      </c>
+      <c r="C396" t="n">
+        <v>-46.804334</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Rua ORLANDIA, 47, Parque Luiza, Embu das Artes</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>-23.64889</v>
+      </c>
+      <c r="C397" t="n">
+        <v>-46.85222</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Praça DA BANDEIRA, 17 A, Centro, Itapecerica da Serra</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>-23.71694</v>
+      </c>
+      <c r="C398" t="n">
+        <v>-46.84917</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Rua DOM PEDRO VILLAS BOAS SOUZA, 08, Jd.São Paulo, Embu-Guaçu</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>-23.64889</v>
+      </c>
+      <c r="C399" t="n">
+        <v>-46.85222</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Rua Luciano Silva, 344, Vila das Belezas, São Paulo</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C400" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Estrada GUAVIRUTUBA, 1199, VILA BOM JARDIM, São Paulo</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>-24.18333</v>
+      </c>
+      <c r="C401" t="n">
+        <v>-47.61667</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Avenida GUARAPIRANGA, 2844, Parque Guarapiranga, São Paulo</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>-21.97556</v>
+      </c>
+      <c r="C402" t="n">
+        <v>-48.25028</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Rua SOLANO TRINDADE, 42, Jardim Arabutan, Embu das Artes</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>-23.64889</v>
+      </c>
+      <c r="C403" t="n">
+        <v>-46.85222</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Estrada DO ALVARENGA, 2820, Santo Amaro, São Paulo</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>-23.65</v>
+      </c>
+      <c r="C404" t="n">
+        <v>-46.7</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Estrada DO M BOI MIRIM, 3592, Jardim Coimbra, São Paulo</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C405" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Avenida ASSEMBLEIA, 16, Jardim Miriam, São Paulo</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C406" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Avenida ENG. JOSE SALLES, 40, Interlagos, São Paulo</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>-23.6890315</v>
+      </c>
+      <c r="C407" t="n">
+        <v>-46.6997888</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Avenida INACIO CUNHA LEME, 301, Jardim Suzana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C408" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Rua JOAO AMOS COMENIUS, 417, JARDIM SAO BERNARDO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>-23.7576681</v>
+      </c>
+      <c r="C409" t="n">
+        <v>-46.704948</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Rua CEDALION, 22, Jardim Itajai, São Paulo</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>-23.7621692</v>
+      </c>
+      <c r="C410" t="n">
+        <v>-46.6884843</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Rua PEDRO ESCOBAR, 619, Grajau, São Paulo</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-23.7475989</v>
+      </c>
+      <c r="C411" t="n">
+        <v>-46.6642636</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Rua FRANCISCO INACIO SOLANO, 206, CANTINHO DO CEU, São Paulo</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>-23.7424958</v>
+      </c>
+      <c r="C412" t="n">
+        <v>-46.6618167</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Rua JEQUIRITUBA, 2350, JARDIM CASTRO ALVES, São Paulo</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-23.6879</v>
+      </c>
+      <c r="C413" t="n">
+        <v>-47.6693</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Rua FRANCISCO INACIO SOLANO, 445, CANTINHO DO CEU, São Paulo</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-23.7424958</v>
+      </c>
+      <c r="C414" t="n">
+        <v>-46.6618167</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Avenida DONA BELMIRA MARIN, 1198, Grajau, São Paulo</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-23.7458241</v>
+      </c>
+      <c r="C415" t="n">
+        <v>-46.688829</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Avenida DONA BELMIRA MARIN, 678, Grajau, São Paulo</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-23.7360469</v>
+      </c>
+      <c r="C416" t="n">
+        <v>-46.6946372</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Avenida DONA BELMIRA MARIN, 3964, Parque Brasil, São Paulo</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-23.7425911</v>
+      </c>
+      <c r="C417" t="n">
+        <v>-46.6918824</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Avenida ARNALDO ROJEK, 121, Altos de Jordanesia, Cajamar</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-23.3381083</v>
+      </c>
+      <c r="C418" t="n">
+        <v>-46.8360337</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Praça BENEDITO MARTINS DA CRUZ, 20, Centro, Cajamar</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>-23.35611</v>
+      </c>
+      <c r="C419" t="n">
+        <v>-46.87694</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Avenida BERTIOGA, S/N, Vila Tupi, Várzea Paulista</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-23.2269234</v>
+      </c>
+      <c r="C420" t="n">
+        <v>-46.8407433</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Avenida TENENTE MARQUES, 4131, IPES (POLVILHO), Cajamar</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>-23.4074922</v>
+      </c>
+      <c r="C421" t="n">
+        <v>-46.8672402</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Rua TAKAHARU URANO, 20, IPES (POLVILHO), Cajamar</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-23.35611</v>
+      </c>
+      <c r="C422" t="n">
+        <v>-46.87694</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Avenida DOMINGO ALONSO LOPEZ, 136, Altos de Jordanesia, Cajamar</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>-23.33444</v>
+      </c>
+      <c r="C423" t="n">
+        <v>-46.84056</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Avenida JORDANO MENDES, 588 A, Jordanesia, Cajamar</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>-23.3410368</v>
+      </c>
+      <c r="C424" t="n">
+        <v>-46.8376444</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Avenida JORDANO MENDES, 444A, Jordanesia, Cajamar</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>-23.3410368</v>
+      </c>
+      <c r="C425" t="n">
+        <v>-46.8376444</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Rua MARIA JOSÉ RODRIGUES, 90, Jd.Santa Lucia, Campo Limpo Paulista</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>-23.20639</v>
+      </c>
+      <c r="C426" t="n">
+        <v>-46.78444</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Avenida FERNAO DIAS PAES LEME, 2211, Centro, Várzea Paulista</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>-23.21139</v>
+      </c>
+      <c r="C427" t="n">
+        <v>-46.82833</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Avenida DUQUE DE CAXIAS, 2395, JD PROMECA, Várzea Paulista</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>-23.21139</v>
+      </c>
+      <c r="C428" t="n">
+        <v>-46.82833</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Estrada MUNICIPAL ATILIO SQUIZATO, 2809, MARACANA, Jarinu</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>-23.1504691</v>
+      </c>
+      <c r="C429" t="n">
+        <v>-46.6994898</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Rua MILTON VIANA, 625, JARDIM PRIMAVERA, Jarinu</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>-23.10139</v>
+      </c>
+      <c r="C430" t="n">
+        <v>-46.72833</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Avenida ANGELO BERNUCCI, 157, Alambique, Jarinu</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>-23.10139</v>
+      </c>
+      <c r="C431" t="n">
+        <v>-46.72833</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Rua GOAR LORENCINI, 45, Centro, Jarinu</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>-23.1052822</v>
+      </c>
+      <c r="C432" t="n">
+        <v>-46.724516</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Avenida TANABI, 342, JARDIM AMERICA, Várzea Paulista</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>-23.1941611</v>
+      </c>
+      <c r="C433" t="n">
+        <v>-46.8222656</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Rua Juvenal Hartmann, 05, Centro, Francisco Morato</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>-23.28167</v>
+      </c>
+      <c r="C434" t="n">
+        <v>-46.74528</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Avenida VITOR ODORICO BUENO, SN, Terra Preta, Mairiporã</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>-23.2631973</v>
+      </c>
+      <c r="C435" t="n">
+        <v>-46.5892014</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Rua JOAO PUGA BERTINI, 12, Terra Preta, Mairiporã</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>-23.24389</v>
+      </c>
+      <c r="C436" t="n">
+        <v>-46.55222</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Rua SAO JUDAS TADEU, S/N, CAPOAVINHA, Mairiporã</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>-23.31861</v>
+      </c>
+      <c r="C437" t="n">
+        <v>-46.58667</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Rua FERNANDO FONSECA KVINT, 40, Terra Preta, Mairiporã</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>-23.24389</v>
+      </c>
+      <c r="C438" t="n">
+        <v>-46.55222</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Rua JOSE DE SOUSA, 25, PARQUE SANTA DELFA, Franco da Rocha</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>9.52229</v>
+      </c>
+      <c r="C439" t="n">
+        <v>138.0854</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Rua DEMERSON GOMES ROMANO, 386, Centro, Francisco Morato</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-23.2868804</v>
+      </c>
+      <c r="C440" t="n">
+        <v>-46.7419955</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Rodovia FERNAO DIAS KM 41,50, S/N, JARDIM DO ALVINOPOLIS, Atibaia</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Avenida WALTER ENGRACIA DE OLIVEIRA, 39, Estancia Lynce, Atibaia</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>-23.1249196</v>
+      </c>
+      <c r="C442" t="n">
+        <v>-46.5512118</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Avenida ALFREDO ANDRÉ, 905, Jardim Brasil, Atibaia</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C443" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Rua JAPÃO, 37, Jd.Imperial, Atibaia</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C444" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Rua JACI, 60, JD DO LAGO, Atibaia</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C445" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Rodovia DOM PEDRO I - SP 065, S/N, Centro, Jarinu</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-23.10139</v>
+      </c>
+      <c r="C446" t="n">
+        <v>-46.72833</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Avenida PREF.ANTONIO JULIO TOLEDO GARCIA LOPES, 4903, JD.ESTANCIA BRASIL, Atibaia</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C447" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Avenida SANTANA, 2813, NOVA GARDENIA, Atibaia</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C448" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Avenida IMPERIAL, 1126, Jardim Imperial, Atibaia</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>-23.1428755</v>
+      </c>
+      <c r="C449" t="n">
+        <v>-46.5804013</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Avenida JERONIMO DE CAMARGO, 500, Loteamento Loanda, Atibaia</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C450" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Avenida SALVADOR MARKOWICZ, 339, Lagos de Santa Helena, Bragança Paulista</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>-22.95194</v>
+      </c>
+      <c r="C451" t="n">
+        <v>-46.54194</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Rua ADOLFO ANDRE, 100, Centro, Atibaia</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>-23.1129695</v>
+      </c>
+      <c r="C452" t="n">
+        <v>-46.5555231</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Avenida DA SAUDADE, 61, Centro, Atibaia</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>-23.1159122</v>
+      </c>
+      <c r="C453" t="n">
+        <v>-46.5488536</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Avenida PREFEITO ANTONIO J.TOLEDO GARCIA LOPES, 1525, Jd.das Cerejeiras, Atibaia</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C454" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Avenida SÃO JOÃO, 1115, Centro, Atibaia</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>-23.1132176</v>
+      </c>
+      <c r="C455" t="n">
+        <v>-46.5569796</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Avenida IMIGRANTES, DOS, 2400, JARDIM AMERICA, Bragança Paulista</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>-22.9521237</v>
+      </c>
+      <c r="C456" t="n">
+        <v>-46.546414</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Rua ROMA, 640, LOTEAMENTO VILA ROMANA, Bragança Paulista</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>-22.95194</v>
+      </c>
+      <c r="C457" t="n">
+        <v>-46.54194</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Avenida INDUSTRIAL, 399, Jardim das Cerejeiras, Atibaia</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>-23.1313373</v>
+      </c>
+      <c r="C458" t="n">
+        <v>-46.5806861</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Avenida PREF.ANTONIO JULIO TOLEDO GARCIA LOPES, 701, Jd.das Cerejeiras, Atibaia</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>-23.11694</v>
+      </c>
+      <c r="C459" t="n">
+        <v>-46.55028</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Rua Major Murzilho, 96, Centro, Bom Jesus dos Perdões</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>-23.135</v>
+      </c>
+      <c r="C460" t="n">
+        <v>-46.46528</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Avenida DR ALIPIO FERREIRA, 490, CATIGUA, Piracaia</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>-23.05389</v>
+      </c>
+      <c r="C461" t="n">
+        <v>-46.35806</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Avenida DONA GERTRUDES, 1127, ALVINOPOLIS, Atibaia</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>-23.1244356</v>
+      </c>
+      <c r="C462" t="n">
+        <v>-46.5647979</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Rua CLOVIS SOARES, 59, ALVINOPOLIS, Atibaia</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>-23.1197119</v>
+      </c>
+      <c r="C463" t="n">
+        <v>-46.5639213</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Rua 21 DE ABRIL, 470, Centro, Bom Jesus dos Perdões</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>-23.135</v>
+      </c>
+      <c r="C464" t="n">
+        <v>-46.46528</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Avenida DR.ALIPIO FERREIRA, 676, Centro, Piracaia</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>-23.0538678</v>
+      </c>
+      <c r="C465" t="n">
+        <v>-46.3498227</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Estrada MUNICIPAL MARIA DA CONCEICAO BAPTISTA, 35, CACHOEIRA BAIXO, Piracaia</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>-23.05389</v>
+      </c>
+      <c r="C466" t="n">
+        <v>-46.35806</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Rua João Franco de Camargo, 595, Centro, Bom Jesus dos Perdões</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>46.36983</v>
+      </c>
+      <c r="C467" t="n">
+        <v>22.96062</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Rua NELLO BACCI, 121, TANQUE, Atibaia</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>-23.0445236</v>
+      </c>
+      <c r="C468" t="n">
+        <v>-46.5692836</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Rua ANTONIO CUNHA LEITE, 2458, PORTAO, Atibaia</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>-23.1975293</v>
+      </c>
+      <c r="C469" t="n">
+        <v>-46.5844685</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Avenida SANTOS DUMONT, 698, JARDIM SANTOS DUMONT, Bom Jesus dos Perdões</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>46.36983</v>
+      </c>
+      <c r="C470" t="n">
+        <v>22.96062</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Rua ANTONIO CUNHA LEITE, 2260, PORTAO, Atibaia</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>-23.1975293</v>
+      </c>
+      <c r="C471" t="n">
+        <v>-46.5844685</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Rua PROF. OTAVIO ROCHA, 151, Jardim Triunfo, Pedreira</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>-22.74194</v>
+      </c>
+      <c r="C472" t="n">
+        <v>-46.90139</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Avenida RINALDI, 549, JD SYLVIO RINALDI I, Jaguariúna</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>-22.70556</v>
+      </c>
+      <c r="C473" t="n">
+        <v>-46.98583</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Rua DR. IVAN MAYA DE VASCONCELOS, 239, Centro, Pedreira</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>-22.74194</v>
+      </c>
+      <c r="C474" t="n">
+        <v>-46.90139</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Rua THOMAZ JASSO, 480, JD.DONA IRMA, Jaguariúna</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>-22.70556</v>
+      </c>
+      <c r="C475" t="n">
+        <v>-46.98583</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Rua DR.ARTHUR MOREIRA DE ALMEIDA, 384, VILA SAO JOSE, Pedreira</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>-22.7476542</v>
+      </c>
+      <c r="C476" t="n">
+        <v>-46.8985023</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Rua CYNIRA MARQUES CEZAR, 100, SAO JUDAS TADEU, Santo Antônio de Posse</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-22.6073243</v>
+      </c>
+      <c r="C477" t="n">
+        <v>-46.9072778</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Avenida RINALDI, 1100, RES.CORACAO DE JESUS, Jaguariúna</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>-22.70556</v>
+      </c>
+      <c r="C478" t="n">
+        <v>-46.98583</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Avenida LIMEIRA, 722, VILA AREAO, Piracicaba</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>-22.72528</v>
+      </c>
+      <c r="C479" t="n">
+        <v>-47.64917</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Rua VEREADOR GUMERCINDO FERNANDES PEREIRA, 1030, JARDIM PARQUE INDUSTRIAL, Santa Gertrudes</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-22.4471493</v>
+      </c>
+      <c r="C480" t="n">
+        <v>-47.5445269</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Avenida 68, 356, JD CIDADE AZUL, Rio Claro</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-22.41139</v>
+      </c>
+      <c r="C481" t="n">
+        <v>-47.56139</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Rua FRANCISCO PENGA, 80, PQ.DAS INDUSTRIAS (NOVA VENEZA, Sumaré</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-22.80611</v>
+      </c>
+      <c r="C482" t="n">
+        <v>-47.21889</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Rua CORCOVADO, 70, Santa Terezinha, Piracicaba</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-22.6723727</v>
+      </c>
+      <c r="C483" t="n">
+        <v>-47.6934602</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Rua Comendador Feiz Zarzur, 943, Jd. Cidade Pirituba, São Paulo</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-23.4765912</v>
+      </c>
+      <c r="C484" t="n">
+        <v>-46.7225822</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Rua FIRMINOPOLIS, 601, Jardim Vista Alegre, São Paulo</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-21.17056</v>
+      </c>
+      <c r="C485" t="n">
+        <v>-48.62917</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Avenida PAVAO, 19, RECANTO PARAISO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-21.01639</v>
+      </c>
+      <c r="C486" t="n">
+        <v>-48.77361</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Avenida PAVÃO, 61, RECANTO DO PARAISO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>-21.01639</v>
+      </c>
+      <c r="C487" t="n">
+        <v>-48.77361</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Avenida SANTA MONICA, 690, Jardim Santa Monica, São Paulo</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>-23.4762246</v>
+      </c>
+      <c r="C488" t="n">
+        <v>-46.7478914</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Avenida ELISEO CORDEIRO DE SIQUEIRA, 961/963, Jardim Santo Elias, São Paulo</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>-7.76667</v>
+      </c>
+      <c r="C489" t="n">
+        <v>-72.59999999999999</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Avenida JOSE ALVES DE MIRA, 185, Vila Clarice, São Paulo</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C490" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Avenida MIGUEL DE CASTRO, 1725, Pirituba, São Paulo</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>-23.4716407</v>
+      </c>
+      <c r="C491" t="n">
+        <v>-46.721</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Rua FRANCISCO GASPAR, 423, JARDIM RUSSO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C492" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Estrada CORONEL JOSE GLADIADOR, 605, Parque Anhanguera, São Paulo</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C493" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Rua FIRMINOPOLIS, 223, Jardim Vista Alegre, São Paulo</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>-21.17056</v>
+      </c>
+      <c r="C494" t="n">
+        <v>-48.62917</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Rua BENEDITO EGIDIO BARBOSA, 176, BRASILANDIA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>-23.4598445</v>
+      </c>
+      <c r="C495" t="n">
+        <v>-46.6986945</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Avenida DEP CANTIDIO SAMPAIO, 4306, JD DAMASCENO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C496" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Rua OTELO ZELONI, 32, PARQUE BELEM, São Paulo</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C497" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Avenida RAIMUNDO PEREIRA DE MAGALHAES, 1600, JD.IRIS, São Paulo</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C498" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Rua DOMENICO FERRARA, 32, Jaraguá, São Paulo</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>-23.4516587</v>
+      </c>
+      <c r="C499" t="n">
+        <v>-46.7458602</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Rua PARAPUA, 820, Itaberaba, São Paulo</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C500" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Rua Benedito Egídio Barbosa, 11, Vila Brasilândia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-23.4598445</v>
+      </c>
+      <c r="C501" t="n">
+        <v>-46.6986945</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Avenida Raimundo Pereira de Magalhaes, 2541, Jardim Iris, São Paulo</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C502" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Avenida Manoel Bolivar, 167, Brasilândia, São Paulo</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-23.4571922</v>
+      </c>
+      <c r="C503" t="n">
+        <v>-46.6994497</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Rua Aparecida do Taboado, 208, Jardim Paulistano, São Paulo</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C504" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Rua PIERRE LAFAGE, 348, Vila Jaguara, São Paulo</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C505" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Rua LEOPOLDO DE PASSOS LIMA, 568, JARDIM SANTA FE, São Paulo</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-23.4302812</v>
+      </c>
+      <c r="C506" t="n">
+        <v>-46.7889886</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Rua DEPUTADO GOUVEIA FRANCO, 3, Parque Mandaqui, São Paulo</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C507" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Avenida Braz Leme, 2040, Santana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>-23.5048653</v>
+      </c>
+      <c r="C508" t="n">
+        <v>-46.6409346</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Rua CONSELHEIRO MOREIRA DE BARROS, 240, Santana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-23.4965576</v>
+      </c>
+      <c r="C509" t="n">
+        <v>-46.6280895</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Rua JULIA LOPES DE ALMEIDA, 288, VILA PAULICEIA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>-23.4883423</v>
+      </c>
+      <c r="C510" t="n">
+        <v>-46.6142367</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Avenida CONSELHEIRO MOREIRA DE BARROS, 3882, Lauzane Paulista, São Paulo</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>-23.47861</v>
+      </c>
+      <c r="C511" t="n">
+        <v>-46.64304</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Rua VOLUNTARIOS DA PATRIA, S/N, Santana, São Paulo</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>-23.4944879</v>
+      </c>
+      <c r="C512" t="n">
+        <v>-46.6263702</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Avenida IMIRIM, 1195, Imirim, São Paulo</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>-23.4943617</v>
+      </c>
+      <c r="C513" t="n">
+        <v>-46.6460109</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Avenida PARADA PINTO, 1139, Vila Nova Cachoeirinha, São Paulo</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>-23.47337</v>
+      </c>
+      <c r="C514" t="n">
+        <v>-46.6669789</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Avenida DEPUTADO EMILIO CARLOS, 1129, Limão, São Paulo</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>-23.496022</v>
+      </c>
+      <c r="C515" t="n">
+        <v>-46.6772285</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Avenida EDE, 493, Vila Ede, São Paulo</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-23.4949166</v>
+      </c>
+      <c r="C516" t="n">
+        <v>-46.5925345</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Avenida GUILHERME COTCHING, 1746, Vila Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>-23.5147153</v>
+      </c>
+      <c r="C517" t="n">
+        <v>-46.5866614</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Avenida MAZZEI, 1160, Vila Mazzei, São Paulo</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>-23.4723641</v>
+      </c>
+      <c r="C518" t="n">
+        <v>-46.5997586</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Avenida ALBERTO BYINGTON, 706, Vila Maria Alta, São Paulo</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C519" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Avenida Guilherme Cotching, 954, Vila Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-23.5207359</v>
+      </c>
+      <c r="C520" t="n">
+        <v>-46.5911184</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Avenida OTTO BAUMGART, 27, Vila Guilherme, São Paulo</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>-23.5109453</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-46.6157126</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Rua ARARITAGUABA, 35, Vila Maria Alta, São Paulo</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Avenida CONCEIÇÃO, 3072, Vila Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>-23.4980602</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-46.5743078</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Rua AMAMBAI, 1215, Vila Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-23.5177931</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-46.5853263</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Avenida MILTON DA ROCHA, 291, Vila Sabrina, São Paulo</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>-23.489062</v>
+      </c>
+      <c r="C525" t="n">
+        <v>-46.5744038</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Rua ALCANTARA, 805, Vila Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>-23.5242819</v>
+      </c>
+      <c r="C526" t="n">
+        <v>-46.5901326</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Rua ALFREDO MARIO PIZZOTI, 136, Vila Guilherme, São Paulo</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>-23.5193667</v>
+      </c>
+      <c r="C527" t="n">
+        <v>-46.6050853</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Rua CLOVIS, 22, JARDIM EUSONIA, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Rua CONEGO VALADAO, 1143, GOPOUVA, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>-23.4737032</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-46.5448854</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Rua CONSTANCIO COLALILO, 630, Vila Augusta, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>-23.4830163</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-46.5375843</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Avenida ONZE DE AGOSTO, 256, Jd. Zaira, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C531" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Praça NOSSA SENHORA APARECIDA, 275, JARDIM VILA GALVAO, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>-23.4661663</v>
+      </c>
+      <c r="C532" t="n">
+        <v>-46.5594452</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Rua SARUTAIA, 759, JARDIM SAO PAULO, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>-23.4388407</v>
+      </c>
+      <c r="C533" t="n">
+        <v>-46.526703</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Rodovia AYRTON SENNA DA SILVA, SN, VILA ANNY, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C534" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Rua PROFESSOR JOSE MUNHOZ, 34, Jardim Munhoz, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Rua CACHOEIRA, 1291, Jardim Moreira, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>-23.4387171</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-46.5483602</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Rua PORTO VELHO, 708, JARDIM CUMBICA (JARDIM PRESIDE, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C537" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Rua OSVALDO RAMOS, 100, Parque Mikail, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C538" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Rua HOLANDESA, 150, CIDADE JARDIM CUMBICA (JARDIM, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C539" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Rua INDUBEL, 259, VILA AEROPORTO, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>-23.46278</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-46.53333</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR TIMOTEO PENTEADO, 1804, VILA HULDA, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>-23.4512951</v>
+      </c>
+      <c r="C541" t="n">
+        <v>-46.5432541</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Avenida JOSE MIGUEL ACKEL, 1014, PARQUE INDUSTRIAL CUMBICA, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>-23.46667</v>
+      </c>
+      <c r="C542" t="n">
+        <v>-46.46667</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Rua HUMBERTO BROCHINI, 155, Jardim Bela Vista, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>-23.437833</v>
+      </c>
+      <c r="C543" t="n">
+        <v>-46.5106224</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Rua Ipacaeta, 981, Jardim Presidente Dutra, Guarulhos</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>-23.4181485</v>
+      </c>
+      <c r="C544" t="n">
+        <v>-46.4345825</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Avenida TUCURUVI, 248, Tucuruvi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>-23.4787794</v>
+      </c>
+      <c r="C545" t="n">
+        <v>-46.6088101</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Avenida CORONEL SEZEFREDO FAGUNDES, 4800, Tucuruvi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>-23.4763092</v>
+      </c>
+      <c r="C546" t="n">
+        <v>-46.609503</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Rua CECILIA MEIRELES, 537, JARDIM JAPAO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>-23.5118251</v>
+      </c>
+      <c r="C547" t="n">
+        <v>-46.5797465</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Avenida PARADA PINTO, 2262, Vila Nova Cachoeirinha, São Paulo</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>-23.47337</v>
+      </c>
+      <c r="C548" t="n">
+        <v>-46.6669789</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Avenida DR. FRANCISCO RANIERI, 834, Lauzane Pta., São Paulo</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C549" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Rua LUCILA DA ROCHA, 30, CASA VERDE MEDIA, São Paulo</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C550" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Rua SODRE E SILVA, 188, Jardim Brasil, São Paulo</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>-23.4801215</v>
+      </c>
+      <c r="C551" t="n">
+        <v>-46.5825591</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Avenida ROLAND GARROS, 1765, Jd.Brasil, São Paulo</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C552" t="n">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Rua ANTENOR NAVARRO, 114, Jardim Brasil, São Paulo</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>-22.19278</v>
+      </c>
+      <c r="C553" t="n">
+        <v>-46.74667</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Avenida LUÍS STAMATIS, 431, Jaçanã, São Paulo</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>-23.4669058</v>
+      </c>
+      <c r="C554" t="n">
+        <v>-46.5811562</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Rua BENEDITO PEREIRA GOULART, 282, Centro, São Bento do Sapucaí</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>-22.68889</v>
+      </c>
+      <c r="C555" t="n">
+        <v>-45.73083</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR JANUARIO MIRAGLIA, 608, Vila Jaguaribe, Campos do Jordão</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>-22.7437125</v>
+      </c>
+      <c r="C556" t="n">
+        <v>-45.5964598</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Via DE ACESSO ROD.JOAO BAT.FURQUIM, 180, RODEIO, São Bento do Sapucaí</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>-22.68889</v>
+      </c>
+      <c r="C557" t="n">
+        <v>-45.73083</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Avenida SANTOS DUMONT, 54, Jardim Paulista, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>-23.1905011</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-45.874648</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Avenida JOSEFINA POZZI BONDESAN, 303, JARDIM CASTANHEIRA, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>46.36983</v>
+      </c>
+      <c r="C559" t="n">
+        <v>22.96062</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Avenida DAS LETRAS, 659, LOT. VILLA BRANCA, Jacareí</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>-23.30528</v>
+      </c>
+      <c r="C560" t="n">
+        <v>-45.96583</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR ADHEMAR DE BARROS, 563, JD.SAO DIMAS, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>-27.61528</v>
+      </c>
+      <c r="C561" t="n">
+        <v>-48.6275</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Avenida General Motors, 1959, Distr.Industrial, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>-23.17944</v>
+      </c>
+      <c r="C562" t="n">
+        <v>-45.88694</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Rua ITORORÓ, 74, Jd. Paulista, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>-23.17944</v>
+      </c>
+      <c r="C563" t="n">
+        <v>-45.88694</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR JOAO BATISTA SOARES DE QUEIROZ JU, 398, JARDIM DAS INDUSTRIAS, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>-21.48028</v>
+      </c>
+      <c r="C564" t="n">
+        <v>-56.13806</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Avenida ANDROMEDA, 1710, Jardim Satelite, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>-23.2415978</v>
+      </c>
+      <c r="C565" t="n">
+        <v>-45.8852501</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Rua CARLOS NUNES DE PAULA, 1944, Jardim Colonial, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>-23.2827613</v>
+      </c>
+      <c r="C566" t="n">
+        <v>-45.8936668</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Avenida ANDROMEDA, 2811, Jardim Satelite, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>-23.219906</v>
+      </c>
+      <c r="C567" t="n">
+        <v>-45.8914207</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Avenida CASSIANO RICARDO, 401, Pq. Residencial Aquarius, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>46.36983</v>
+      </c>
+      <c r="C568" t="n">
+        <v>22.96062</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Avenida JOAO BATISTA DE SOUZA SOARES, 2185, JARDIM AMERICA, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>-23.250287</v>
+      </c>
+      <c r="C569" t="n">
+        <v>-45.9084156</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Avenida SAO JOAO, 2555, JARDIM DAS COLINAS, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>46.36983</v>
+      </c>
+      <c r="C570" t="n">
+        <v>22.96062</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Avenida CASSIOPEIA, 591, Jardim Satelite, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>-23.2298571</v>
+      </c>
+      <c r="C571" t="n">
+        <v>-45.8861203</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Avenida SÃO JOSE DOS CAMPOS, 262, Centro, Paraibuna</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>-23.3831094</v>
+      </c>
+      <c r="C572" t="n">
+        <v>-45.6650429</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Rua SETE LAGOS, 190, CHACARAS REUNIDAS, São José dos Campos</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>-23.2541491</v>
+      </c>
+      <c r="C573" t="n">
+        <v>-45.9313672</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Avenida JOSÉ HERCULANO, 7040, Porto Novo, Caraguatatuba</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>-23.6946544</v>
+      </c>
+      <c r="C574" t="n">
+        <v>-45.4422191</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Rua APROVADA, 195, CHACARAS, Bertioga</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>-23.85444</v>
+      </c>
+      <c r="C575" t="n">
+        <v>-46.13861</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Avenida ANCHIETA, 2300, ALBATROZ, Bertioga</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>-23.8376018</v>
+      </c>
+      <c r="C576" t="n">
+        <v>-46.1298621</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Estrada DO CASCALHO, 415, BOICUCANGA, São Sebastião</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>-23.7787433</v>
+      </c>
+      <c r="C577" t="n">
+        <v>-45.6144153</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Avenida APROVADA 294, 775, Boraceia, Bertioga</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>-23.85444</v>
+      </c>
+      <c r="C578" t="n">
+        <v>-46.13861</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Rua CAV NAMI JAFET, 145, Centro, Guarujá</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>-23.99306</v>
+      </c>
+      <c r="C579" t="n">
+        <v>-46.25639</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Rua ODAIR MULLER DE AZEVEDO MARQUES, 161, Vila Margarida, São Vicente</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>-23.96306</v>
+      </c>
+      <c r="C580" t="n">
+        <v>-46.39194</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Avenida SAO PAULO, 11, Vila Ponte Nova, São Vicente</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>-23.96306</v>
+      </c>
+      <c r="C581" t="n">
+        <v>-46.39194</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Rua OSVALDO COCRANE, 60, Embaré, Santos</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>-23.96083</v>
+      </c>
+      <c r="C582" t="n">
+        <v>-46.33361</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Rua ALEXANDRE MARTINS, 80, Aparecida, Santos</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>-23.9778305</v>
+      </c>
+      <c r="C583" t="n">
+        <v>-46.3087111</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Rua Duque de Caxias, 21, Campo Grande, Santos</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>-23.9599623</v>
+      </c>
+      <c r="C584" t="n">
+        <v>-46.3415268</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Rua JARDEL FILHO, 125, JAPUI, São Vicente</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>-23.989401</v>
+      </c>
+      <c r="C585" t="n">
+        <v>-46.3929296</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Rua ALEXANDRE MARTINS, 125, Aparecida, Santos</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>-23.9706908</v>
+      </c>
+      <c r="C586" t="n">
+        <v>-46.3055</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Rua PARTICULAR UM (PEDREIRA), 3043, Enseada, Guarujá</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>-23.99306</v>
+      </c>
+      <c r="C587" t="n">
+        <v>-46.25639</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Rua BANDEIRANTES, 605, João B.Julião, Guarujá</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>-23.99306</v>
+      </c>
+      <c r="C588" t="n">
+        <v>-46.25639</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Rua Flaminio Levy, 11, Saboó, Santos</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>-23.9330201</v>
+      </c>
+      <c r="C589" t="n">
+        <v>-46.3488733</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Avenida São Jorge, 923, Vila Mirim, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>-24.00583</v>
+      </c>
+      <c r="C590" t="n">
+        <v>-46.40278</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Rua ITIBERE DA CUNHA, 159, Samambaia, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>-24.0327245</v>
+      </c>
+      <c r="C591" t="n">
+        <v>-46.5256038</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Rua DEZENOVE, 33057, Quietude, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>-24.00583</v>
+      </c>
+      <c r="C592" t="n">
+        <v>-46.40278</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Rua AFONSO CHAVES, 1083, Cidade Ocian, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>-24.00583</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-46.40278</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Rua QUARTO, 119, Jardim dos Prados, Peruíbe</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>-24.32</v>
+      </c>
+      <c r="C594" t="n">
+        <v>-46.99833</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Rua JOAO MARIANO FERREIRA, 164, Centro, Itanhaém</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>-24.18306</v>
+      </c>
+      <c r="C595" t="n">
+        <v>-46.78889</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Avenida MARIA CAVALCANTE DA SILVA, 538, Jardim Samambaia, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>-24.00583</v>
+      </c>
+      <c r="C596" t="n">
+        <v>-46.40278</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Avenida SEBASTIÃO SIZENANDO FLORINDO, 16, Jardim Brasil, Peruíbe</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>-24.32</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-46.99833</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Rua DO CONHECIMENTO, 1233, Melvi, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>-24.0347778</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-46.5302849</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Rua CORA CORALINA, 195, Anhanguera, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>-24.0199067</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-46.4894587</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Avenida PADRE ANCHIETA, 1821, Stella Maris, Peruíbe</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>-24.32</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-46.99833</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Rua Ruy Manoel Sampaio Seabra Pereira, 95, Quietude, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>-24.0154988</v>
+      </c>
+      <c r="C601" t="n">
+        <v>-46.4797105</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Avenida doutor luiz pereira barreto, 436, Vila Atlantica, Mongaguá</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>-24.1003816</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-46.6458773</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Avenida sao paulo, 2304, MANGAGUA, Mongaguá</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>-24.09306</v>
+      </c>
+      <c r="C603" t="n">
+        <v>-46.62083</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Avenida RUI BARBOSA, 420, Centro, Itanhaém</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>-24.18306</v>
+      </c>
+      <c r="C604" t="n">
+        <v>-46.78889</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Rua AURINO PEREIRA BARBOSA, 19528, JARDIM ANHANGUERA, Praia Grande</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>-24.00583</v>
+      </c>
+      <c r="C605" t="n">
+        <v>-46.40278</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Avenida Independencia, 1136, Rocio, Cananéia</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>-25.0069457</v>
+      </c>
+      <c r="C606" t="n">
+        <v>-47.9313292</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Avenida INDEPENDENCIA, 278, Rocio, Cananéia</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>-25.0069457</v>
+      </c>
+      <c r="C607" t="n">
+        <v>-47.9313292</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Avenida CAPITÃO JULIO FRANCO, 390, Rocio, Iguape</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>-24.70806</v>
+      </c>
+      <c r="C608" t="n">
+        <v>-47.55528</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Rua Drº Emilio Martins, 141, Centro, Miracatu</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>-24.28139</v>
+      </c>
+      <c r="C609" t="n">
+        <v>-47.45972</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Avenida Independencia, 194, Centro, Cananéia</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>-25.01472</v>
+      </c>
+      <c r="C610" t="n">
+        <v>-47.92667</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Avenida DA SAUDADE, 577, Jardim Miracatu, Miracatu</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>-24.28139</v>
+      </c>
+      <c r="C611" t="n">
+        <v>-47.45972</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Rua vereador Aecio Gauglitz, 261, Vila Palmira, Pariquera-Açu</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>-24.715</v>
+      </c>
+      <c r="C612" t="n">
+        <v>-47.88111</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Rua SALUSTINO GREGORIANO LEITE, 142, VILA FLORINDO, Juquiá</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>-24.32083</v>
+      </c>
+      <c r="C613" t="n">
+        <v>-47.63472</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Rua QUATRO, 21, VILA NOSSA SENHORA DOS NAVEGAN, Cananéia</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>-25.01472</v>
+      </c>
+      <c r="C614" t="n">
+        <v>-47.92667</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Avenida Clara Gianotti de Souza, 560, Centro, Registro</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>-24.4948657</v>
+      </c>
+      <c r="C615" t="n">
+        <v>-47.8450486</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>Avenida Luiz de Lima, 390, Centro, Cajati</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>-24.7300951</v>
+      </c>
+      <c r="C616" t="n">
+        <v>-48.1127778</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Rua RIO BRANCO, 960, Centro, Registro</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>-24.498679</v>
+      </c>
+      <c r="C617" t="n">
+        <v>-47.8526184</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Rua CHILE, 250, Jd.Cardoso de Freitas, Cajati</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>-24.73611</v>
+      </c>
+      <c r="C618" t="n">
+        <v>-48.12278</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Rua HERCULANO RICARDO, 685, JD.APARECIDA, Sete Barras</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>-24.38778</v>
+      </c>
+      <c r="C619" t="n">
+        <v>-47.92556</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Rua Julio Prestes, 1055, Centro, Sete Barras</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>-24.3840612</v>
+      </c>
+      <c r="C620" t="n">
+        <v>-47.9284094</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Rua Julio Prestes, 1344, Centro, Sete Barras</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>-24.3817887</v>
+      </c>
+      <c r="C621" t="n">
+        <v>-47.928544</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Avenida DR. FERNANDO COSTA, 282, Centro, Cajati</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>-24.73611</v>
+      </c>
+      <c r="C622" t="n">
+        <v>-48.12278</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Rua JOAO FELIZARDO, 477, Vila Antunes, Cajati</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>-24.7323312</v>
+      </c>
+      <c r="C623" t="n">
+        <v>-48.1103442</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Avenida DOUTOR FERNANDO COSTA, 46, Centro, Cajati</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>-24.73611</v>
+      </c>
+      <c r="C624" t="n">
+        <v>-48.12278</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Rua JOSE ANTONIO DE CAMPOS, 536, Centro, Registro</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>-20.8179584</v>
+      </c>
+      <c r="C625" t="n">
+        <v>-49.3881123</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Avenida Dos Trabalhadores, 36, Centro, Cajati</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>-24.73611</v>
+      </c>
+      <c r="C626" t="n">
+        <v>-48.12278</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Avenida SN 1, 280, LOT INTER BUSI PARK, Duque de Caxias</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>-22.78556</v>
+      </c>
+      <c r="C627" t="n">
+        <v>-43.31167</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Rodovia PRESIDENTE CASTELO BRANCO KM 33, SN, Itaqui, Itapevi</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>-23.54889</v>
+      </c>
+      <c r="C628" t="n">
+        <v>-46.93417</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>Avenida ANTONIO ORTEGA, 3604, Pinhal, Cabreúva</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>-23.3075</v>
+      </c>
+      <c r="C629" t="n">
+        <v>-47.13278</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Estrada RURAL LIGA ROD. JOAO MELAO, KM 221,8 ATE, S/N, STO ANTONIO DO ATERRADINHO, Botucatu</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>34.23121</v>
+      </c>
+      <c r="C630" t="n">
+        <v>-95.62025</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Rodovia Marechal Rondon -  Km.159, s/nº, Barra Funda, Tietê</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>-23.10194</v>
+      </c>
+      <c r="C631" t="n">
+        <v>-47.71472</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>Rodovia João Melão - km 221,80, s/nº, Santo Antonio do Aterradinho, Botucatu</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>-6.31056</v>
+      </c>
+      <c r="C632" t="n">
+        <v>-35.47889</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>Rua PROFESSORA RUTH AMORIM ALVES, 270, Parque das Rosas, Itu</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>-23.26417</v>
+      </c>
+      <c r="C633" t="n">
+        <v>-47.29917</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>Avenida INOCENCIO SERAFICO, 1894, Vila Silva Ribeiro, Carapicuíba</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>-23.5537441</v>
+      </c>
+      <c r="C634" t="n">
+        <v>-46.8356894</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>Rodovia Marechal Rondom, s/n, Barra Funda, Tietê</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>-23.10194</v>
+      </c>
+      <c r="C635" t="n">
+        <v>-47.71472</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>Estrada Municipal do jacu, S/N, Jacú, Itu</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>-23.2998852</v>
+      </c>
+      <c r="C636" t="n">
+        <v>-47.3781323</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>Avenida JOHN BOYD DUNLOP, 4833, Cidade Satelite Iris, Campinas</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>-22.9361574</v>
+      </c>
+      <c r="C637" t="n">
+        <v>-47.1402625</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>Estrada ITAPECERICA, DE, S/N, CAPAO REDONDO, São Paulo</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>-23.6539613</v>
+      </c>
+      <c r="C638" t="n">
+        <v>-46.7598881</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>Rua BENJAMIN CONSTANT, 116, EMBARE, Santos</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>-23.9705001</v>
+      </c>
+      <c r="C639" t="n">
+        <v>-46.3165928</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>Rua JOAO PINTO DE OLIVEIRA, 489, Jardim Guarani, São Paulo</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>-21.66667</v>
+      </c>
+      <c r="C640" t="n">
+        <v>-50.88333</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>Rua Clara Nunes, 619, Jd.Elisa Maria, São Paulo</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>-22</v>
+      </c>
+      <c r="C641" t="n">
+        <v>-49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
